--- a/Paper files/Series 2 Experimental.xlsx
+++ b/Paper files/Series 2 Experimental.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danam\OneDrive\Documents\GitHub\Series-2-Diarylimidazoles\Paper files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD3FA81-34A5-45A6-849F-980B6DE96124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8555EB5D-9F21-49E9-AD41-3297C7F28B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23D0555D-923D-436B-97C9-D36204C19406}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="261">
   <si>
     <t>OSA ID</t>
   </si>
@@ -871,22 +871,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,24 +1210,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6A4B2B-C15A-4992-B932-6B0DB1568341}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1241,184 +1249,400 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>133</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>134</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>135</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>136</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>137</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>138</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>139</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>140</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>141</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>142</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>143</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>144</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>145</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>147</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>148</v>
       </c>
+      <c r="C17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>149</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>150</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>155</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1430,7 +1654,7 @@
       <c r="E22" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="3" t="s">
         <v>258</v>
       </c>
@@ -1439,7 +1663,7 @@
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1462,7 +1686,7 @@
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1485,7 +1709,7 @@
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1494,7 +1718,7 @@
       <c r="D25" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="3" t="s">
         <v>258</v>
       </c>
@@ -1506,7 +1730,7 @@
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1529,175 +1753,336 @@
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>202</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="8" t="s">
         <v>209</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="8" t="s">
         <v>210</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="8" t="s">
         <v>211</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="8" t="s">
         <v>212</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="8" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="8" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="8" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="8" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1705,7 +2090,7 @@
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="8" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1713,7 +2098,7 @@
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="8" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1721,7 +2106,7 @@
       <c r="A51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="8" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1729,7 +2114,7 @@
       <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="8" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1737,7 +2122,7 @@
       <c r="A53" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="8" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1745,7 +2130,7 @@
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="8" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1753,7 +2138,7 @@
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="8" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1761,7 +2146,7 @@
       <c r="A56" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="8" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1769,7 +2154,7 @@
       <c r="A57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1777,7 +2162,7 @@
       <c r="A58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="8" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1785,7 +2170,7 @@
       <c r="A59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="8" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1793,7 +2178,7 @@
       <c r="A60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="8" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1801,47 +2186,47 @@
       <c r="A61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1849,7 +2234,7 @@
       <c r="A67" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1857,7 +2242,7 @@
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1865,7 +2250,7 @@
       <c r="A69" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="8" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1873,7 +2258,7 @@
       <c r="A70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1881,7 +2266,7 @@
       <c r="A71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="8" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1889,7 +2274,7 @@
       <c r="A72" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="8" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1897,7 +2282,7 @@
       <c r="A73" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1905,7 +2290,7 @@
       <c r="A74" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="8" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1913,7 +2298,7 @@
       <c r="A75" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="8" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1921,7 +2306,7 @@
       <c r="A76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="8" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1929,7 +2314,7 @@
       <c r="A77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="8" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1937,7 +2322,7 @@
       <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="8" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1945,7 +2330,7 @@
       <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="8" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1953,7 +2338,7 @@
       <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="8" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1961,7 +2346,7 @@
       <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="8" t="s">
         <v>198</v>
       </c>
     </row>
@@ -1969,7 +2354,7 @@
       <c r="A82" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="8" t="s">
         <v>199</v>
       </c>
     </row>
@@ -1977,7 +2362,7 @@
       <c r="A83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="8" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1985,7 +2370,7 @@
       <c r="A84" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="8" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1993,7 +2378,7 @@
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="8" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2001,7 +2386,7 @@
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2009,7 +2394,7 @@
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="8" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2017,7 +2402,7 @@
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="8" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2025,7 +2410,7 @@
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="8" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2033,7 +2418,7 @@
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="8" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2041,7 +2426,7 @@
       <c r="A91" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="8" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2049,7 +2434,7 @@
       <c r="A92" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2057,7 +2442,7 @@
       <c r="A93" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2065,7 +2450,7 @@
       <c r="A94" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="8" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2073,7 +2458,7 @@
       <c r="A95" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2081,191 +2466,191 @@
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="8" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2273,7 +2658,7 @@
       <c r="A120" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="8" t="s">
         <v>252</v>
       </c>
     </row>
@@ -2281,7 +2666,7 @@
       <c r="A121" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="8" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2289,7 +2674,7 @@
       <c r="A122" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="8" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2297,7 +2682,7 @@
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="8" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2305,7 +2690,7 @@
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="8" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2313,7 +2698,7 @@
       <c r="A125" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="8" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2321,7 +2706,7 @@
       <c r="A126" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="8" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2329,7 +2714,7 @@
       <c r="A127" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="8" t="s">
         <v>250</v>
       </c>
     </row>
